--- a/biology/Botanique/Juncus_capitatus/Juncus_capitatus.xlsx
+++ b/biology/Botanique/Juncus_capitatus/Juncus_capitatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Juncus capitatus, de noms communs Jonc à inflorescence globuleuse, Jonc capité ou Jonc en tête, est une plante du genre Juncus et de la famille des Juncaceae.
 </t>
@@ -513,11 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-C'est une plante annuelle de 3 à 12 cm, glabre, à racine fibreuse ; les tiges sont filiformes, simples, dressées, nues ; les feuilles sont toutes radicales, bien plus courtes que les tiges, sétacées-canaliculées[1].
-Appareil reproducteur
-Les fleurs sont brunes, réunies à 5 à 12 en glomérule terminal, ordinairement solitaire et dépassé par une petite bractée foliacée ; le périanthe est à divisions inégales, lancéolées, les extérieures plus longues à pointe arquée en dehors. Ce jonc possède trois étamines ; la capsule est petite, ovoïde-obtuse, mucronée, bien plus courte que le périanthe[1].
-La floraison a lieu de mai à août[1].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante annuelle de 3 à 12 cm, glabre, à racine fibreuse ; les tiges sont filiformes, simples, dressées, nues ; les feuilles sont toutes radicales, bien plus courtes que les tiges, sétacées-canaliculées.
 </t>
         </is>
       </c>
@@ -543,12 +557,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le jonc en tête pousse naturellement dans presque toute l'Europe, ainsi qu'en Afrique septentrionale[2].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont brunes, réunies à 5 à 12 en glomérule terminal, ordinairement solitaire et dépassé par une petite bractée foliacée ; le périanthe est à divisions inégales, lancéolées, les extérieures plus longues à pointe arquée en dehors. Ce jonc possède trois étamines ; la capsule est petite, ovoïde-obtuse, mucronée, bien plus courte que le périanthe.
+La floraison a lieu de mai à août.
 </t>
         </is>
       </c>
@@ -574,12 +595,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Habitat</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante pousse dans les lieux sablonneux humides, les pelouses humides et les bas-marais[2]. On la trouve jusqu'à une altitude de 2 200 m[3].
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jonc en tête pousse naturellement dans presque toute l'Europe, ainsi qu'en Afrique septentrionale.
 </t>
         </is>
       </c>
@@ -605,10 +628,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante pousse dans les lieux sablonneux humides, les pelouses humides et les bas-marais. On la trouve jusqu'à une altitude de 2 200 m.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Juncus_capitatus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Juncus_capitatus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Juncinella capitata (Weigel) Fourr., 1869
 Juncus ericetorum Pollich, 1776
@@ -620,7 +678,7 @@
 Juncus triandrus Gouan, 1796
 Schoenus ferrugineus Krock., 1787
 Schoenus minimus T.F.Forst., 1798
-Scirpus michelianus Gouan, 1773[4]</t>
+Scirpus michelianus Gouan, 1773</t>
         </is>
       </c>
     </row>
